--- a/Aggregator/FRED/FRED.xlsx
+++ b/Aggregator/FRED/FRED.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W951"/>
+  <dimension ref="A1:W952"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,112 +442,112 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>nGDP_LCU</t>
+          <t>GDPA</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>rGDP_LCU</t>
+          <t>GDPCA</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>rGDP_LCU_pc</t>
+          <t>A939RX0Q048SBEA</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>infl</t>
+          <t>FPCPITOTLZGUSA</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>pop</t>
+          <t>B230RC0A052NBEA</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>sav</t>
+          <t>A929RC1A027NBEA</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>govtax</t>
+          <t>W006RC1Q027SBEA</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>govexp</t>
+          <t>W068RCQ027SBEA</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>exports</t>
+          <t>EXPGSA</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>imports</t>
+          <t>IMPGSA</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>A124RC1A027NBEA</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>govdebt_GDP</t>
+          <t>GFDEGDQ188S</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>cbrate</t>
+          <t>RIFSPFFNA</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>govdef_GDP</t>
+          <t>FYFSGDA188S</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>govrev</t>
+          <t>AFRECPT</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>M0</t>
+          <t>BOGMBASE</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M1SL</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>M2SL</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>unemp</t>
+          <t>UNRATE</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>HPI</t>
+          <t>USSTHPI</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>ltrate</t>
+          <t>BOGZ1FL073161113Q</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>strate</t>
+          <t>RIFSGFSM03NA</t>
         </is>
       </c>
     </row>
@@ -37998,7 +37998,9 @@
       <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr"/>
       <c r="L948" t="inlineStr"/>
-      <c r="M948" t="inlineStr"/>
+      <c r="M948" t="n">
+        <v>120.80844</v>
+      </c>
       <c r="N948" t="inlineStr"/>
       <c r="O948" t="inlineStr"/>
       <c r="P948" t="inlineStr"/>
@@ -38017,7 +38019,9 @@
       <c r="U948" t="n">
         <v>693.76</v>
       </c>
-      <c r="V948" t="inlineStr"/>
+      <c r="V948" t="n">
+        <v>4454</v>
+      </c>
       <c r="W948" t="inlineStr"/>
     </row>
     <row r="949">
@@ -38125,6 +38129,35 @@
       <c r="V951" t="inlineStr"/>
       <c r="W951" t="inlineStr"/>
     </row>
+    <row r="952">
+      <c r="A952" s="2" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B952" t="inlineStr"/>
+      <c r="C952" t="inlineStr"/>
+      <c r="D952" t="inlineStr"/>
+      <c r="E952" t="inlineStr"/>
+      <c r="F952" t="inlineStr"/>
+      <c r="G952" t="inlineStr"/>
+      <c r="H952" t="inlineStr"/>
+      <c r="I952" t="inlineStr"/>
+      <c r="J952" t="inlineStr"/>
+      <c r="K952" t="inlineStr"/>
+      <c r="L952" t="inlineStr"/>
+      <c r="M952" t="inlineStr"/>
+      <c r="N952" t="inlineStr"/>
+      <c r="O952" t="inlineStr"/>
+      <c r="P952" t="inlineStr"/>
+      <c r="Q952" t="inlineStr"/>
+      <c r="R952" t="inlineStr"/>
+      <c r="S952" t="inlineStr"/>
+      <c r="T952" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U952" t="inlineStr"/>
+      <c r="V952" t="inlineStr"/>
+      <c r="W952" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
